--- a/03_Facebook_Loginpage.xlsx
+++ b/03_Facebook_Loginpage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutomationTesting\Assignments\Manual Assignments\Manual Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB64F41-E3A3-434C-9D88-7D345BB5E410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E30AEC2-81A2-4C7D-B525-9B8D6A29AE7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="71">
   <si>
     <t>Test Case</t>
   </si>
@@ -379,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +585,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,50 +636,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,31 +934,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -969,19 +969,19 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -996,7 +996,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1015,354 +1015,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="105">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="120">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="120">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="120">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="120">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="135">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="120">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="135">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="135">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="120">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
